--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_20_2.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_20_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,221 +518,386 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_20_2_3</t>
+          <t>model_20_2_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9262098343569</v>
+        <v>0.935668962192915</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7786296420588892</v>
+        <v>0.8269569456985931</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9594566735712167</v>
+        <v>0.9986499951093522</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4020831053570411</v>
+        <v>0.8615366889925381</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8433764786098453</v>
+        <v>0.9750981382103319</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4934351774278809</v>
+        <v>0.4301819460331697</v>
       </c>
       <c r="H2" t="n">
-        <v>1.48030460286898</v>
+        <v>1.157139700903508</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3307502296316309</v>
+        <v>0.01088443847589244</v>
       </c>
       <c r="J2" t="n">
-        <v>2.579681994855785</v>
+        <v>0.3827732931438831</v>
       </c>
       <c r="K2" t="n">
-        <v>1.455216112243708</v>
+        <v>0.1968288658098877</v>
       </c>
       <c r="L2" t="n">
-        <v>1.145291949968542</v>
+        <v>0.486977646559948</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7024494127180126</v>
+        <v>0.6558825703074977</v>
       </c>
       <c r="N2" t="n">
-        <v>1.033414414630838</v>
+        <v>1.029131035988114</v>
       </c>
       <c r="O2" t="n">
-        <v>0.7323541384881634</v>
+        <v>0.6838048491895802</v>
       </c>
       <c r="P2" t="n">
-        <v>155.4127275629317</v>
+        <v>155.6870940589584</v>
       </c>
       <c r="Q2" t="n">
-        <v>249.2661660777831</v>
+        <v>249.5405325738099</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_20_2_2</t>
+          <t>model_20_2_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9272455945992498</v>
+        <v>0.9410905465579085</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7779427850244336</v>
+        <v>0.8251714933389779</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9625882657107089</v>
+        <v>0.9939360014962416</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4157378993355335</v>
+        <v>0.7948413273062608</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8479216694270956</v>
+        <v>0.9610307888370628</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4865090439180498</v>
+        <v>0.3939277864203578</v>
       </c>
       <c r="H3" t="n">
-        <v>1.48489761902107</v>
+        <v>1.169079029053507</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3052028730014573</v>
+        <v>0.04889109594290887</v>
       </c>
       <c r="J3" t="n">
-        <v>2.52076908156402</v>
+        <v>0.5671485117077592</v>
       </c>
       <c r="K3" t="n">
-        <v>1.412985961550004</v>
+        <v>0.3080197657305038</v>
       </c>
       <c r="L3" t="n">
-        <v>1.246824857056957</v>
+        <v>0.7470559421610503</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6975020028057625</v>
+        <v>0.6276366675237814</v>
       </c>
       <c r="N3" t="n">
-        <v>1.032945391124868</v>
+        <v>1.026675978917174</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7271961070933983</v>
+        <v>0.6543564598472816</v>
       </c>
       <c r="P3" t="n">
-        <v>155.4409995755385</v>
+        <v>155.8631753393594</v>
       </c>
       <c r="Q3" t="n">
-        <v>249.2944380903899</v>
+        <v>249.7166138542108</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_20_2_1</t>
+          <t>model_20_2_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9281192516771166</v>
+        <v>0.9419179992932289</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7768975522731891</v>
+        <v>0.8206058134564078</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9657141865810838</v>
+        <v>0.9872788241544251</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4301045714626739</v>
+        <v>0.6966507878360164</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8526296509619736</v>
+        <v>0.9404647621743746</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4806668950155335</v>
+        <v>0.3883946061692002</v>
       </c>
       <c r="H4" t="n">
-        <v>1.491887095241497</v>
+        <v>1.199609751451276</v>
       </c>
       <c r="I4" t="n">
-        <v>0.279701782273174</v>
+        <v>0.1025647068328165</v>
       </c>
       <c r="J4" t="n">
-        <v>2.458784806250121</v>
+        <v>0.8385902089713351</v>
       </c>
       <c r="K4" t="n">
-        <v>1.369243294261647</v>
+        <v>0.4705773984257574</v>
       </c>
       <c r="L4" t="n">
-        <v>1.360027049001097</v>
+        <v>0.9557464079471607</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6933014459926746</v>
+        <v>0.623213130613597</v>
       </c>
       <c r="N4" t="n">
-        <v>1.032549772825457</v>
+        <v>1.026301283338915</v>
       </c>
       <c r="O4" t="n">
-        <v>0.7228167238804261</v>
+        <v>0.6497446038128468</v>
       </c>
       <c r="P4" t="n">
-        <v>155.465161549477</v>
+        <v>155.8914668599407</v>
       </c>
       <c r="Q4" t="n">
-        <v>249.3186000643284</v>
+        <v>249.7449053747922</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_20_2_0</t>
+          <t>model_20_2_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9287267242615324</v>
+        <v>0.9397853740844054</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7753645942008079</v>
+        <v>0.8143447370368945</v>
       </c>
       <c r="D5" t="n">
-        <v>0.968747877440178</v>
+        <v>0.9799339364485995</v>
       </c>
       <c r="E5" t="n">
-        <v>0.444874902837325</v>
+        <v>0.5815368565901007</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8573908649030477</v>
+        <v>0.9165885569282661</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4766047230463912</v>
+        <v>0.4026554807604392</v>
       </c>
       <c r="H5" t="n">
-        <v>1.502137992930132</v>
+        <v>1.241477598298168</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2549530989099748</v>
+        <v>0.1617829947814116</v>
       </c>
       <c r="J5" t="n">
-        <v>2.395058963667944</v>
+        <v>1.156815580220497</v>
       </c>
       <c r="K5" t="n">
-        <v>1.325006035519194</v>
+        <v>0.659299287500954</v>
       </c>
       <c r="L5" t="n">
-        <v>1.486183495006392</v>
+        <v>1.120945533750144</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6903656444569003</v>
+        <v>0.6345514011964982</v>
       </c>
       <c r="N5" t="n">
-        <v>1.032274690900438</v>
+        <v>1.027267000414609</v>
       </c>
       <c r="O5" t="n">
-        <v>0.7197559391953268</v>
+        <v>0.661565568047918</v>
       </c>
       <c r="P5" t="n">
-        <v>155.4821356089833</v>
+        <v>155.8193479382196</v>
       </c>
       <c r="Q5" t="n">
-        <v>249.3355741238348</v>
+        <v>249.672786453071</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>model_20_2_4</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9359038276609916</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8071423968882662</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9726232642485966</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.4604578792128399</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.89168669090022</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.4286113995666853</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.289639680035772</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.2207254196048964</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.491530954018616</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.8561281868117563</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.250747509996516</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.6546841983480931</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.029024681813891</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.6825554600548918</v>
+      </c>
+      <c r="P6" t="n">
+        <v>155.6944091981611</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>249.5478477130126</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>model_20_2_5</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.9310955446105518</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7995049192274981</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9657333427461596</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.3405482891000746</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.8672039073551009</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.4607644104650836</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.340711528320679</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.2762755344352312</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.823013628765018</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.049644581600124</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.351997857362778</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.6787962952647013</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.031202017534844</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.7076940588561615</v>
+      </c>
+      <c r="P7" t="n">
+        <v>155.5497368136339</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>249.4031753284853</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>model_20_2_6</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9258938997175538</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7917685892759123</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9594502945087772</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.2260311841664454</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.8439736394010907</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.4955478338159343</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.392444402329458</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.3269327227569961</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.139589110441797</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.233260864288863</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.430230782823065</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.7039515848522072</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.033557479373183</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.7339202612000356</v>
+      </c>
+      <c r="P8" t="n">
+        <v>155.4041827868229</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>249.2576213016743</v>
       </c>
     </row>
   </sheetData>
